--- a/DATOS/PONDERACIONES/IPC_INQUILINOS/alquiler_ajustado_ponderaciones_IPC_2024.xlsx
+++ b/DATOS/PONDERACIONES/IPC_INQUILINOS/alquiler_ajustado_ponderaciones_IPC_2024.xlsx
@@ -384,7 +384,7 @@
         <v>174.393</v>
       </c>
       <c r="C2">
-        <v>129.0252607102593</v>
+        <v>132.8887902256449</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>17.21</v>
       </c>
       <c r="C3">
-        <v>12.73287767756483</v>
+        <v>13.11415068141123</v>
       </c>
     </row>
     <row r="4">
@@ -410,7 +410,7 @@
         <v>16.536</v>
       </c>
       <c r="C4">
-        <v>12.23421645997745</v>
+        <v>12.6005575634989</v>
       </c>
     </row>
     <row r="5">
@@ -423,7 +423,7 @@
         <v>21.96</v>
       </c>
       <c r="C5">
-        <v>16.24718151071026</v>
+        <v>16.73368674978447</v>
       </c>
     </row>
     <row r="6">
@@ -436,7 +436,7 @@
         <v>29.983</v>
       </c>
       <c r="C6">
-        <v>22.18302564825253</v>
+        <v>22.84727367116519</v>
       </c>
     </row>
     <row r="7">
@@ -449,7 +449,7 @@
         <v>9.481999999999999</v>
       </c>
       <c r="C7">
-        <v>7.015290304396843</v>
+        <v>7.225356000066316</v>
       </c>
     </row>
     <row r="8">
@@ -462,7 +462,7 @@
         <v>8.75</v>
       </c>
       <c r="C8">
-        <v>6.473717587373168</v>
+        <v>6.667566441740168</v>
       </c>
     </row>
     <row r="9">
@@ -475,7 +475,7 @@
         <v>28.648</v>
       </c>
       <c r="C9">
-        <v>21.19532130777903</v>
+        <v>21.82999353405398</v>
       </c>
     </row>
     <row r="10">
@@ -488,7 +488,7 @@
         <v>47.624</v>
       </c>
       <c r="C10">
-        <v>35.2347801578354</v>
+        <v>36.28984962530672</v>
       </c>
     </row>
     <row r="11">
@@ -501,7 +501,7 @@
         <v>13.425</v>
       </c>
       <c r="C11">
-        <v>9.932532412626832</v>
+        <v>10.22995194061277</v>
       </c>
     </row>
     <row r="12">
@@ -514,7 +514,7 @@
         <v>2.947</v>
       </c>
       <c r="C12">
-        <v>2.180348083427283</v>
+        <v>2.245636377578088</v>
       </c>
     </row>
     <row r="13">
@@ -527,7 +527,7 @@
         <v>7.973</v>
       </c>
       <c r="C13">
-        <v>5.89885146561443</v>
+        <v>6.075486541713641</v>
       </c>
     </row>
     <row r="14">
@@ -540,7 +540,7 @@
         <v>1.91</v>
       </c>
       <c r="C14">
-        <v>1.413120067643743</v>
+        <v>1.455434503282711</v>
       </c>
     </row>
     <row r="15">
@@ -553,7 +553,7 @@
         <v>3.343</v>
       </c>
       <c r="C15">
-        <v>2.473330045095829</v>
+        <v>2.547391384541415</v>
       </c>
     </row>
     <row r="16">
@@ -566,7 +566,7 @@
         <v>23.859</v>
       </c>
       <c r="C16">
-        <v>17.65216319052988</v>
+        <v>18.18073916954042</v>
       </c>
     </row>
     <row r="17">
@@ -579,7 +579,7 @@
         <v>25.039</v>
       </c>
       <c r="C17">
-        <v>18.52519024802706</v>
+        <v>19.07990812968366</v>
       </c>
     </row>
     <row r="18">
@@ -592,7 +592,7 @@
         <v>24.254</v>
       </c>
       <c r="C18">
-        <v>17.94440529875986</v>
+        <v>18.4817321689104</v>
       </c>
     </row>
     <row r="19">
@@ -605,7 +605,7 @@
         <v>8.574</v>
       </c>
       <c r="C19">
-        <v>6.343503382187147</v>
+        <v>6.533453105312023</v>
       </c>
     </row>
     <row r="20">
@@ -618,7 +618,7 @@
         <v>35.449</v>
       </c>
       <c r="C20">
-        <v>26.22706454340473</v>
+        <v>27.01240717637111</v>
       </c>
     </row>
     <row r="21">
@@ -631,7 +631,7 @@
         <v>91.498</v>
       </c>
       <c r="C21">
-        <v>67.69510992108229</v>
+        <v>69.72217077558193</v>
       </c>
     </row>
     <row r="22">
@@ -644,7 +644,7 @@
         <v>16.836</v>
       </c>
       <c r="C22">
-        <v>12.45617249154453</v>
+        <v>12.82915984150142</v>
       </c>
     </row>
     <row r="23">
@@ -657,7 +657,7 @@
         <v>3.138</v>
       </c>
       <c r="C23">
-        <v>2.321660090191657</v>
+        <v>2.39117982790636</v>
       </c>
     </row>
     <row r="24">
@@ -670,7 +670,7 @@
         <v>30.397</v>
       </c>
       <c r="C24">
-        <v>22.4893249718151</v>
+        <v>23.16274481480867</v>
       </c>
     </row>
     <row r="25">
@@ -683,7 +683,7 @@
         <v>8.753</v>
       </c>
       <c r="C25">
-        <v>6.475937147688838</v>
+        <v>6.669852464520192</v>
       </c>
     </row>
     <row r="26">
@@ -696,7 +696,7 @@
         <v>16.679</v>
       </c>
       <c r="C26">
-        <v>12.34001550169109</v>
+        <v>12.70952464934677</v>
       </c>
     </row>
     <row r="27">
@@ -709,7 +709,7 @@
         <v>37.43</v>
       </c>
       <c r="C27">
-        <v>27.69271420518602</v>
+        <v>28.52194421878108</v>
       </c>
     </row>
     <row r="28">
@@ -722,7 +722,7 @@
         <v>6.493</v>
       </c>
       <c r="C28">
-        <v>4.803868376550169</v>
+        <v>4.947715303567875</v>
       </c>
     </row>
     <row r="29">
@@ -735,7 +735,7 @@
         <v>16.532</v>
       </c>
       <c r="C29">
-        <v>12.23125704622322</v>
+        <v>12.59750953312554</v>
       </c>
     </row>
     <row r="30">
@@ -748,7 +748,7 @@
         <v>3.13</v>
       </c>
       <c r="C30">
-        <v>2.315741262683202</v>
+        <v>2.385083767159625</v>
       </c>
     </row>
     <row r="31">
@@ -761,7 +761,7 @@
         <v>3.227</v>
       </c>
       <c r="C31">
-        <v>2.387507046223224</v>
+        <v>2.458998503713774</v>
       </c>
     </row>
     <row r="32">
@@ -774,7 +774,7 @@
         <v>5.699</v>
       </c>
       <c r="C32">
-        <v>4.216424746335964</v>
+        <v>4.342681274454539</v>
       </c>
     </row>
     <row r="33">
@@ -787,7 +787,7 @@
         <v>6.722</v>
       </c>
       <c r="C33">
-        <v>4.973294813979707</v>
+        <v>5.122215042443132</v>
       </c>
     </row>
     <row r="34">
@@ -800,7 +800,7 @@
         <v>128.018</v>
       </c>
       <c r="C34">
-        <v>94.7145574971815</v>
+        <v>97.55068808442203</v>
       </c>
     </row>
     <row r="35">
@@ -813,7 +813,7 @@
         <v>11.286</v>
       </c>
       <c r="C35">
-        <v>8.349985907553551</v>
+        <v>8.600017698454803</v>
       </c>
     </row>
     <row r="36">
@@ -826,7 +826,7 @@
         <v>29.801</v>
       </c>
       <c r="C36">
-        <v>22.04837232243517</v>
+        <v>22.708588289177</v>
       </c>
     </row>
     <row r="37">
@@ -839,7 +839,7 @@
         <v>5.558</v>
       </c>
       <c r="C37">
-        <v>4.112105411499436</v>
+        <v>4.235238203793354</v>
       </c>
     </row>
     <row r="38">
@@ -852,7 +852,7 @@
         <v>13.023</v>
       </c>
       <c r="C38">
-        <v>9.635111330326945</v>
+        <v>9.923624888089394</v>
       </c>
     </row>
     <row r="39">
@@ -865,7 +865,7 @@
         <v>11.703</v>
       </c>
       <c r="C39">
-        <v>8.658504791431792</v>
+        <v>8.917774864878306</v>
       </c>
     </row>
     <row r="40">
@@ -878,7 +878,7 @@
         <v>10.148</v>
       </c>
       <c r="C40">
-        <v>7.50803269447576</v>
+        <v>7.73285305723191</v>
       </c>
     </row>
     <row r="41">
@@ -891,7 +891,7 @@
         <v>7.626</v>
       </c>
       <c r="C41">
-        <v>5.642122322435175</v>
+        <v>5.811069906824059</v>
       </c>
     </row>
     <row r="42">
@@ -904,7 +904,7 @@
         <v>34.943</v>
       </c>
       <c r="C42">
-        <v>286</v>
+        <v>264.62</v>
       </c>
     </row>
   </sheetData>

--- a/DATOS/PONDERACIONES/IPC_INQUILINOS/alquiler_ajustado_ponderaciones_IPC_2024.xlsx
+++ b/DATOS/PONDERACIONES/IPC_INQUILINOS/alquiler_ajustado_ponderaciones_IPC_2024.xlsx
@@ -384,7 +384,7 @@
         <v>174.393</v>
       </c>
       <c r="C2">
-        <v>132.8887902256449</v>
+        <v>131.8749747856535</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>17.21</v>
       </c>
       <c r="C3">
-        <v>13.11415068141123</v>
+        <v>13.01410214894575</v>
       </c>
     </row>
     <row r="4">
@@ -410,7 +410,7 @@
         <v>16.536</v>
       </c>
       <c r="C4">
-        <v>12.6005575634989</v>
+        <v>12.50442725944027</v>
       </c>
     </row>
     <row r="5">
@@ -423,7 +423,7 @@
         <v>21.96</v>
       </c>
       <c r="C5">
-        <v>16.73368674978447</v>
+        <v>16.6060245898227</v>
       </c>
     </row>
     <row r="6">
@@ -436,7 +436,7 @@
         <v>29.983</v>
       </c>
       <c r="C6">
-        <v>22.84727367116519</v>
+        <v>22.67297064101339</v>
       </c>
     </row>
     <row r="7">
@@ -449,7 +449,7 @@
         <v>9.481999999999999</v>
       </c>
       <c r="C7">
-        <v>7.225356000066316</v>
+        <v>7.170233386188473</v>
       </c>
     </row>
     <row r="8">
@@ -462,7 +462,7 @@
         <v>8.75</v>
       </c>
       <c r="C8">
-        <v>6.667566441740168</v>
+        <v>6.616699233194383</v>
       </c>
     </row>
     <row r="9">
@@ -475,7 +475,7 @@
         <v>28.648</v>
       </c>
       <c r="C9">
-        <v>21.82999353405398</v>
+        <v>21.66345138657745</v>
       </c>
     </row>
     <row r="10">
@@ -488,7 +488,7 @@
         <v>47.624</v>
       </c>
       <c r="C10">
-        <v>36.28984962530672</v>
+        <v>36.01299248933135</v>
       </c>
     </row>
     <row r="11">
@@ -501,7 +501,7 @@
         <v>13.425</v>
       </c>
       <c r="C11">
-        <v>10.22995194061277</v>
+        <v>10.15190710921538</v>
       </c>
     </row>
     <row r="12">
@@ -514,7 +514,7 @@
         <v>2.947</v>
       </c>
       <c r="C12">
-        <v>2.245636377578088</v>
+        <v>2.228504301739868</v>
       </c>
     </row>
     <row r="13">
@@ -527,7 +527,7 @@
         <v>7.973</v>
       </c>
       <c r="C13">
-        <v>6.075486541713641</v>
+        <v>6.029136341286721</v>
       </c>
     </row>
     <row r="14">
@@ -540,7 +540,7 @@
         <v>1.91</v>
       </c>
       <c r="C14">
-        <v>1.455434503282711</v>
+        <v>1.444330918331574</v>
       </c>
     </row>
     <row r="15">
@@ -553,7 +553,7 @@
         <v>3.343</v>
       </c>
       <c r="C15">
-        <v>2.547391384541415</v>
+        <v>2.527957204179294</v>
       </c>
     </row>
     <row r="16">
@@ -566,7 +566,7 @@
         <v>23.859</v>
       </c>
       <c r="C16">
-        <v>18.18073916954042</v>
+        <v>18.0420373719754</v>
       </c>
     </row>
     <row r="17">
@@ -579,7 +579,7 @@
         <v>25.039</v>
       </c>
       <c r="C17">
-        <v>19.07990812968366</v>
+        <v>18.93434652570905</v>
       </c>
     </row>
     <row r="18">
@@ -592,7 +592,7 @@
         <v>24.254</v>
       </c>
       <c r="C18">
-        <v>18.4817321689104</v>
+        <v>18.34073408021675</v>
       </c>
     </row>
     <row r="19">
@@ -605,7 +605,7 @@
         <v>8.574</v>
       </c>
       <c r="C19">
-        <v>6.533453105312023</v>
+        <v>6.483609054332415</v>
       </c>
     </row>
     <row r="20">
@@ -618,7 +618,7 @@
         <v>35.449</v>
       </c>
       <c r="C20">
-        <v>27.01240717637111</v>
+        <v>26.80632812771516</v>
       </c>
     </row>
     <row r="21">
@@ -631,7 +631,7 @@
         <v>91.498</v>
       </c>
       <c r="C21">
-        <v>69.72217077558193</v>
+        <v>69.19025673586511</v>
       </c>
     </row>
     <row r="22">
@@ -644,7 +644,7 @@
         <v>16.836</v>
       </c>
       <c r="C22">
-        <v>12.82915984150142</v>
+        <v>12.73128551886407</v>
       </c>
     </row>
     <row r="23">
@@ -657,7 +657,7 @@
         <v>3.138</v>
       </c>
       <c r="C23">
-        <v>2.39117982790636</v>
+        <v>2.372937393573026</v>
       </c>
     </row>
     <row r="24">
@@ -670,7 +670,7 @@
         <v>30.397</v>
       </c>
       <c r="C24">
-        <v>23.16274481480867</v>
+        <v>22.98603503901824</v>
       </c>
     </row>
     <row r="25">
@@ -683,7 +683,7 @@
         <v>8.753</v>
       </c>
       <c r="C25">
-        <v>6.669852464520192</v>
+        <v>6.618967815788621</v>
       </c>
     </row>
     <row r="26">
@@ -696,7 +696,7 @@
         <v>16.679</v>
       </c>
       <c r="C26">
-        <v>12.70952464934677</v>
+        <v>12.61256302976561</v>
       </c>
     </row>
     <row r="27">
@@ -709,7 +709,7 @@
         <v>37.43</v>
       </c>
       <c r="C27">
-        <v>28.52194421878108</v>
+        <v>28.30434883411037</v>
       </c>
     </row>
     <row r="28">
@@ -722,7 +722,7 @@
         <v>6.493</v>
       </c>
       <c r="C28">
-        <v>4.947715303567875</v>
+        <v>4.909968928129271</v>
       </c>
     </row>
     <row r="29">
@@ -735,7 +735,7 @@
         <v>16.532</v>
       </c>
       <c r="C29">
-        <v>12.59750953312554</v>
+        <v>12.50140248264795</v>
       </c>
     </row>
     <row r="30">
@@ -748,7 +748,7 @@
         <v>3.13</v>
       </c>
       <c r="C30">
-        <v>2.385083767159625</v>
+        <v>2.366887839988391</v>
       </c>
     </row>
     <row r="31">
@@ -761,7 +761,7 @@
         <v>3.227</v>
       </c>
       <c r="C31">
-        <v>2.458998503713774</v>
+        <v>2.440238677202089</v>
       </c>
     </row>
     <row r="32">
@@ -774,7 +774,7 @@
         <v>5.699</v>
       </c>
       <c r="C32">
-        <v>4.342681274454539</v>
+        <v>4.309550734854261</v>
       </c>
     </row>
     <row r="33">
@@ -787,7 +787,7 @@
         <v>6.722</v>
       </c>
       <c r="C33">
-        <v>5.122215042443132</v>
+        <v>5.083137399489445</v>
       </c>
     </row>
     <row r="34">
@@ -800,7 +800,7 @@
         <v>128.018</v>
       </c>
       <c r="C34">
-        <v>97.55068808442203</v>
+        <v>96.80646884972326</v>
       </c>
     </row>
     <row r="35">
@@ -813,7 +813,7 @@
         <v>11.286</v>
       </c>
       <c r="C35">
-        <v>8.600017698454803</v>
+        <v>8.534407719523633</v>
       </c>
     </row>
     <row r="36">
@@ -826,7 +826,7 @@
         <v>29.801</v>
       </c>
       <c r="C36">
-        <v>22.708588289177</v>
+        <v>22.53534329696295</v>
       </c>
     </row>
     <row r="37">
@@ -839,7 +839,7 @@
         <v>5.558</v>
       </c>
       <c r="C37">
-        <v>4.235238203793354</v>
+        <v>4.202927352925072</v>
       </c>
     </row>
     <row r="38">
@@ -852,7 +852,7 @@
         <v>13.023</v>
       </c>
       <c r="C38">
-        <v>9.923624888089394</v>
+        <v>9.847917041587479</v>
       </c>
     </row>
     <row r="39">
@@ -865,7 +865,7 @@
         <v>11.703</v>
       </c>
       <c r="C39">
-        <v>8.917774864878306</v>
+        <v>8.849740700122727</v>
       </c>
     </row>
     <row r="40">
@@ -878,7 +878,7 @@
         <v>10.148</v>
       </c>
       <c r="C40">
-        <v>7.73285305723191</v>
+        <v>7.673858722109325</v>
       </c>
     </row>
     <row r="41">
@@ -891,7 +891,7 @@
         <v>7.626</v>
       </c>
       <c r="C41">
-        <v>5.811069906824059</v>
+        <v>5.766736954553185</v>
       </c>
     </row>
     <row r="42">
@@ -904,7 +904,7 @@
         <v>34.943</v>
       </c>
       <c r="C42">
-        <v>264.62</v>
+        <v>270.230251978327</v>
       </c>
     </row>
   </sheetData>

--- a/DATOS/PONDERACIONES/IPC_INQUILINOS/alquiler_ajustado_ponderaciones_IPC_2024.xlsx
+++ b/DATOS/PONDERACIONES/IPC_INQUILINOS/alquiler_ajustado_ponderaciones_IPC_2024.xlsx
@@ -384,7 +384,7 @@
         <v>174.393</v>
       </c>
       <c r="C2">
-        <v>132.8887902256449</v>
+        <v>131.3419327583063</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>17.21</v>
       </c>
       <c r="C3">
-        <v>13.11415068141123</v>
+        <v>12.96149881457657</v>
       </c>
     </row>
     <row r="4">
@@ -410,7 +410,7 @@
         <v>16.536</v>
       </c>
       <c r="C4">
-        <v>12.6005575634989</v>
+        <v>12.45388404403475</v>
       </c>
     </row>
     <row r="5">
@@ -423,7 +423,7 @@
         <v>21.96</v>
       </c>
       <c r="C5">
-        <v>16.73368674978447</v>
+        <v>16.53890261290537</v>
       </c>
     </row>
     <row r="6">
@@ -436,7 +436,7 @@
         <v>29.983</v>
       </c>
       <c r="C6">
-        <v>22.84727367116519</v>
+        <v>22.58132591269315</v>
       </c>
     </row>
     <row r="7">
@@ -449,7 +449,7 @@
         <v>9.481999999999999</v>
       </c>
       <c r="C7">
-        <v>7.225356000066316</v>
+        <v>7.141251119106041</v>
       </c>
     </row>
     <row r="8">
@@ -462,7 +462,7 @@
         <v>8.75</v>
       </c>
       <c r="C8">
-        <v>6.667566441740168</v>
+        <v>6.589954365342529</v>
       </c>
     </row>
     <row r="9">
@@ -475,7 +475,7 @@
         <v>28.648</v>
       </c>
       <c r="C9">
-        <v>21.82999353405398</v>
+        <v>21.57588716095232</v>
       </c>
     </row>
     <row r="10">
@@ -488,7 +488,7 @@
         <v>47.624</v>
       </c>
       <c r="C10">
-        <v>36.28984962530672</v>
+        <v>35.86742705086544</v>
       </c>
     </row>
     <row r="11">
@@ -501,7 +501,7 @@
         <v>13.425</v>
       </c>
       <c r="C11">
-        <v>10.22995194061277</v>
+        <v>10.11087284053982</v>
       </c>
     </row>
     <row r="12">
@@ -514,7 +514,7 @@
         <v>2.947</v>
       </c>
       <c r="C12">
-        <v>2.245636377578088</v>
+        <v>2.219496630247364</v>
       </c>
     </row>
     <row r="13">
@@ -527,7 +527,7 @@
         <v>7.973</v>
       </c>
       <c r="C13">
-        <v>6.075486541713641</v>
+        <v>6.004766417700113</v>
       </c>
     </row>
     <row r="14">
@@ -540,7 +540,7 @@
         <v>1.91</v>
       </c>
       <c r="C14">
-        <v>1.455434503282711</v>
+        <v>1.438492895749055</v>
       </c>
     </row>
     <row r="15">
@@ -553,7 +553,7 @@
         <v>3.343</v>
       </c>
       <c r="C15">
-        <v>2.547391384541415</v>
+        <v>2.517739136381723</v>
       </c>
     </row>
     <row r="16">
@@ -566,7 +566,7 @@
         <v>23.859</v>
       </c>
       <c r="C16">
-        <v>18.18073916954042</v>
+        <v>17.96911099459513</v>
       </c>
     </row>
     <row r="17">
@@ -579,7 +579,7 @@
         <v>25.039</v>
       </c>
       <c r="C17">
-        <v>19.07990812968366</v>
+        <v>18.85781341186419</v>
       </c>
     </row>
     <row r="18">
@@ -592,7 +592,7 @@
         <v>24.254</v>
       </c>
       <c r="C18">
-        <v>18.4817321689104</v>
+        <v>18.26660036308774</v>
       </c>
     </row>
     <row r="19">
@@ -605,7 +605,7 @@
         <v>8.574</v>
       </c>
       <c r="C19">
-        <v>6.533453105312023</v>
+        <v>6.457402140393925</v>
       </c>
     </row>
     <row r="20">
@@ -618,7 +618,7 @@
         <v>35.449</v>
       </c>
       <c r="C20">
-        <v>27.01240717637111</v>
+        <v>26.69797626251741</v>
       </c>
     </row>
     <row r="21">
@@ -631,7 +631,7 @@
         <v>91.498</v>
       </c>
       <c r="C21">
-        <v>69.72217077558193</v>
+        <v>68.91058794515551</v>
       </c>
     </row>
     <row r="22">
@@ -644,7 +644,7 @@
         <v>16.836</v>
       </c>
       <c r="C22">
-        <v>12.82915984150142</v>
+        <v>12.67982533656078</v>
       </c>
     </row>
     <row r="23">
@@ -657,7 +657,7 @@
         <v>3.138</v>
       </c>
       <c r="C23">
-        <v>2.39117982790636</v>
+        <v>2.36334591982227</v>
       </c>
     </row>
     <row r="24">
@@ -670,7 +670,7 @@
         <v>30.397</v>
       </c>
       <c r="C24">
-        <v>23.16274481480867</v>
+        <v>22.89312489637907</v>
       </c>
     </row>
     <row r="25">
@@ -683,7 +683,7 @@
         <v>8.753</v>
       </c>
       <c r="C25">
-        <v>6.669852464520192</v>
+        <v>6.59221377826779</v>
       </c>
     </row>
     <row r="26">
@@ -696,7 +696,7 @@
         <v>16.679</v>
       </c>
       <c r="C26">
-        <v>12.70952464934677</v>
+        <v>12.56158272680549</v>
       </c>
     </row>
     <row r="27">
@@ -709,7 +709,7 @@
         <v>37.43</v>
       </c>
       <c r="C27">
-        <v>28.52194421878108</v>
+        <v>28.18994193083095</v>
       </c>
     </row>
     <row r="28">
@@ -722,7 +722,7 @@
         <v>6.493</v>
       </c>
       <c r="C28">
-        <v>4.947715303567875</v>
+        <v>4.890122707905034</v>
       </c>
     </row>
     <row r="29">
@@ -735,7 +735,7 @@
         <v>16.532</v>
       </c>
       <c r="C29">
-        <v>12.59750953312554</v>
+        <v>12.45087149346774</v>
       </c>
     </row>
     <row r="30">
@@ -748,7 +748,7 @@
         <v>3.13</v>
       </c>
       <c r="C30">
-        <v>2.385083767159625</v>
+        <v>2.357320818688242</v>
       </c>
     </row>
     <row r="31">
@@ -761,7 +761,7 @@
         <v>3.227</v>
       </c>
       <c r="C31">
-        <v>2.458998503713774</v>
+        <v>2.430375169938325</v>
       </c>
     </row>
     <row r="32">
@@ -774,7 +774,7 @@
         <v>5.699</v>
       </c>
       <c r="C32">
-        <v>4.342681274454539</v>
+        <v>4.292131420352808</v>
       </c>
     </row>
     <row r="33">
@@ -787,7 +787,7 @@
         <v>6.722</v>
       </c>
       <c r="C33">
-        <v>5.122215042443132</v>
+        <v>5.062591227866569</v>
       </c>
     </row>
     <row r="34">
@@ -800,7 +800,7 @@
         <v>128.018</v>
       </c>
       <c r="C34">
-        <v>97.55068808442203</v>
+        <v>96.41517462199084</v>
       </c>
     </row>
     <row r="35">
@@ -813,7 +813,7 @@
         <v>11.286</v>
       </c>
       <c r="C35">
-        <v>8.600017698454803</v>
+        <v>8.499911424829232</v>
       </c>
     </row>
     <row r="36">
@@ -826,7 +826,7 @@
         <v>29.801</v>
       </c>
       <c r="C36">
-        <v>22.708588289177</v>
+        <v>22.44425486189402</v>
       </c>
     </row>
     <row r="37">
@@ -839,7 +839,7 @@
         <v>5.558</v>
       </c>
       <c r="C37">
-        <v>4.235238203793354</v>
+        <v>4.185939012865575</v>
       </c>
     </row>
     <row r="38">
@@ -852,7 +852,7 @@
         <v>13.023</v>
       </c>
       <c r="C38">
-        <v>9.923624888089394</v>
+        <v>9.808111508554944</v>
       </c>
     </row>
     <row r="39">
@@ -865,7 +865,7 @@
         <v>11.703</v>
       </c>
       <c r="C39">
-        <v>8.917774864878306</v>
+        <v>8.813969821440415</v>
       </c>
     </row>
     <row r="40">
@@ -878,7 +878,7 @@
         <v>10.148</v>
       </c>
       <c r="C40">
-        <v>7.73285305723191</v>
+        <v>7.642840788513827</v>
       </c>
     </row>
     <row r="41">
@@ -891,7 +891,7 @@
         <v>7.626</v>
       </c>
       <c r="C41">
-        <v>5.811069906824059</v>
+        <v>5.743427656011673</v>
       </c>
     </row>
     <row r="42">
@@ -904,7 +904,7 @@
         <v>34.943</v>
       </c>
       <c r="C42">
-        <v>264.62</v>
+        <v>273.1799999999999</v>
       </c>
     </row>
   </sheetData>
